--- a/Activity TEDS ASP.xlsx
+++ b/Activity TEDS ASP.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tunasgroup-my.sharepoint.com/personal/muhammad_bella_tunasgroup_com/Documents/SysAdmin Dokumentasi/Migrate AWS TUNAS GROUP/AWS/TDM/Migrate 2023/ASP/TEDS ASP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bellabeen/development/terraform/terrraform-odoo-aws/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="11_0A208F665366638C9249BFBC9C3F7AA88AD6D195" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9DBF848-8709-2C41-A539-C2A420E61746}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131B9BBB-EBC5-C94A-AF3F-ADA820A42F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="143">
   <si>
     <t>No</t>
   </si>
@@ -476,12 +476,19 @@
     <numFmt numFmtId="164" formatCode="dd\-mmm\-yyyy"/>
     <numFmt numFmtId="165" formatCode="dd\-mmm\-yyyy\ hh:mm"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -686,14 +693,14 @@
   </cellStyleXfs>
   <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -718,7 +725,7 @@
     <xf numFmtId="20" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -740,57 +747,57 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -1071,7 +1078,7 @@
   <dimension ref="B3:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1081,26 +1088,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="39" t="s">
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="40" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="B4" s="37"/>
-      <c r="C4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="39"/>
       <c r="D4" s="22">
         <v>1</v>
       </c>
@@ -1116,13 +1123,13 @@
       <c r="H4" s="22">
         <v>5</v>
       </c>
-      <c r="I4" s="39"/>
+      <c r="I4" s="40"/>
     </row>
     <row r="5" spans="2:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="36"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="23"/>
       <c r="E5" s="28"/>
       <c r="F5" s="28"/>
@@ -1136,7 +1143,7 @@
       <c r="B6" s="24">
         <v>2</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="35" t="s">
         <v>139</v>
       </c>
       <c r="D6" s="23"/>
@@ -1152,7 +1159,7 @@
       <c r="B7" s="24">
         <v>3</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="35" t="s">
         <v>140</v>
       </c>
       <c r="D7" s="23"/>
@@ -1168,7 +1175,7 @@
       <c r="B8" s="24">
         <v>4</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="35" t="s">
         <v>141</v>
       </c>
       <c r="D8" s="23"/>
@@ -1184,7 +1191,7 @@
       <c r="B9" s="24">
         <v>5</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="35" t="s">
         <v>142</v>
       </c>
       <c r="D9" s="23"/>
@@ -1222,7 +1229,7 @@
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
-      <c r="I11" s="31"/>
+      <c r="I11" s="43"/>
     </row>
     <row r="12" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="24">
@@ -1279,7 +1286,7 @@
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
       <c r="I15" s="43" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="16" x14ac:dyDescent="0.2">
@@ -1294,7 +1301,9 @@
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
-      <c r="I16" s="31"/>
+      <c r="I16" s="43" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="17" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B17" s="24">
@@ -1339,10 +1348,10 @@
       <c r="I19" s="31"/>
     </row>
     <row r="20" spans="2:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="36"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="23"/>
       <c r="E20" s="28"/>
       <c r="F20" s="28"/>
@@ -1491,10 +1500,10 @@
       <c r="I30" s="31"/>
     </row>
     <row r="31" spans="2:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="36"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="28"/>
       <c r="E31" s="28"/>
       <c r="F31" s="28"/>
@@ -1531,10 +1540,10 @@
       <c r="I33" s="31"/>
     </row>
     <row r="34" spans="2:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="36"/>
+      <c r="C34" s="37"/>
       <c r="D34" s="28"/>
       <c r="E34" s="28"/>
       <c r="F34" s="28"/>
@@ -1557,10 +1566,10 @@
       <c r="I35" s="31"/>
     </row>
     <row r="36" spans="2:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="36"/>
+      <c r="C36" s="37"/>
       <c r="D36" s="28"/>
       <c r="E36" s="28"/>
       <c r="F36" s="28"/>
@@ -2135,18 +2144,18 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="41" t="s">
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
     </row>
     <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">

--- a/Activity TEDS ASP.xlsx
+++ b/Activity TEDS ASP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bellabeen/development/terraform/terrraform-odoo-aws/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131B9BBB-EBC5-C94A-AF3F-ADA820A42F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779EAF71-D1A2-0D44-A45D-A3BD66308F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="143">
   <si>
     <t>No</t>
   </si>
@@ -476,12 +476,19 @@
     <numFmt numFmtId="164" formatCode="dd\-mmm\-yyyy"/>
     <numFmt numFmtId="165" formatCode="dd\-mmm\-yyyy\ hh:mm"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -691,16 +698,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -725,7 +732,7 @@
     <xf numFmtId="20" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -747,56 +754,57 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1078,7 +1086,7 @@
   <dimension ref="B3:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1088,26 +1096,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="40" t="s">
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="41" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="B4" s="38"/>
-      <c r="C4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="40"/>
       <c r="D4" s="22">
         <v>1</v>
       </c>
@@ -1123,13 +1131,13 @@
       <c r="H4" s="22">
         <v>5</v>
       </c>
-      <c r="I4" s="40"/>
+      <c r="I4" s="41"/>
     </row>
     <row r="5" spans="2:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="37"/>
+      <c r="C5" s="38"/>
       <c r="D5" s="23"/>
       <c r="E5" s="28"/>
       <c r="F5" s="28"/>
@@ -1229,7 +1237,9 @@
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
-      <c r="I11" s="43"/>
+      <c r="I11" s="44" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="24">
@@ -1243,7 +1253,9 @@
       <c r="F12" s="28"/>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
-      <c r="I12" s="31"/>
+      <c r="I12" s="44" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" s="24">
@@ -1257,7 +1269,9 @@
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
-      <c r="I13" s="31"/>
+      <c r="I13" s="44" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="24">
@@ -1285,7 +1299,7 @@
       <c r="F15" s="28"/>
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
-      <c r="I15" s="43" t="s">
+      <c r="I15" s="36" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1301,7 +1315,7 @@
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
-      <c r="I16" s="43" t="s">
+      <c r="I16" s="36" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1317,7 +1331,9 @@
       <c r="F17" s="28"/>
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
-      <c r="I17" s="31"/>
+      <c r="I17" s="44" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="18" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B18" s="24">
@@ -1331,7 +1347,9 @@
       <c r="F18" s="28"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
-      <c r="I18" s="31"/>
+      <c r="I18" s="44" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="19" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B19" s="24">
@@ -1348,10 +1366,10 @@
       <c r="I19" s="31"/>
     </row>
     <row r="20" spans="2:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="37"/>
+      <c r="C20" s="38"/>
       <c r="D20" s="23"/>
       <c r="E20" s="28"/>
       <c r="F20" s="28"/>
@@ -1500,10 +1518,10 @@
       <c r="I30" s="31"/>
     </row>
     <row r="31" spans="2:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="37"/>
+      <c r="C31" s="38"/>
       <c r="D31" s="28"/>
       <c r="E31" s="28"/>
       <c r="F31" s="28"/>
@@ -1540,10 +1558,10 @@
       <c r="I33" s="31"/>
     </row>
     <row r="34" spans="2:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="37"/>
+      <c r="C34" s="38"/>
       <c r="D34" s="28"/>
       <c r="E34" s="28"/>
       <c r="F34" s="28"/>
@@ -1566,10 +1584,10 @@
       <c r="I35" s="31"/>
     </row>
     <row r="36" spans="2:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="B36" s="36" t="s">
+      <c r="B36" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="37"/>
+      <c r="C36" s="38"/>
       <c r="D36" s="28"/>
       <c r="E36" s="28"/>
       <c r="F36" s="28"/>
@@ -2144,18 +2162,18 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="42" t="s">
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
     </row>
     <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">

--- a/Activity TEDS ASP.xlsx
+++ b/Activity TEDS ASP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bellabeen/development/terraform/terrraform-odoo-aws/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779EAF71-D1A2-0D44-A45D-A3BD66308F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C92CBE-079C-E541-92A7-0A9DB41CC1F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="145">
   <si>
     <t>No</t>
   </si>
@@ -466,6 +466,12 @@
   </si>
   <si>
     <t>Create New NACL &amp; Route Table</t>
+  </si>
+  <si>
+    <t>on prgress</t>
+  </si>
+  <si>
+    <t>Create Autoscalling</t>
   </si>
 </sst>
 </file>
@@ -476,12 +482,19 @@
     <numFmt numFmtId="164" formatCode="dd\-mmm\-yyyy"/>
     <numFmt numFmtId="165" formatCode="dd\-mmm\-yyyy\ hh:mm"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -698,16 +711,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -732,7 +745,7 @@
     <xf numFmtId="20" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -754,57 +767,58 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1083,10 +1097,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:I38"/>
+  <dimension ref="B3:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1096,26 +1110,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="41" t="s">
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="B4" s="39"/>
-      <c r="C4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="41"/>
       <c r="D4" s="22">
         <v>1</v>
       </c>
@@ -1131,13 +1145,13 @@
       <c r="H4" s="22">
         <v>5</v>
       </c>
-      <c r="I4" s="41"/>
+      <c r="I4" s="42"/>
     </row>
     <row r="5" spans="2:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="38"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="23"/>
       <c r="E5" s="28"/>
       <c r="F5" s="28"/>
@@ -1223,7 +1237,9 @@
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
-      <c r="I10" s="31"/>
+      <c r="I10" s="45" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="11" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" s="24">
@@ -1237,7 +1253,7 @@
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
-      <c r="I11" s="44" t="s">
+      <c r="I11" s="37" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1253,7 +1269,7 @@
       <c r="F12" s="28"/>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
-      <c r="I12" s="44" t="s">
+      <c r="I12" s="37" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1269,7 +1285,7 @@
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
-      <c r="I13" s="44" t="s">
+      <c r="I13" s="37" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1285,7 +1301,9 @@
       <c r="F14" s="28"/>
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
-      <c r="I14" s="31"/>
+      <c r="I14" s="45" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" s="24">
@@ -1315,8 +1333,8 @@
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
-      <c r="I16" s="36" t="s">
-        <v>34</v>
+      <c r="I16" s="45" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="16" x14ac:dyDescent="0.2">
@@ -1331,8 +1349,8 @@
       <c r="F17" s="28"/>
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
-      <c r="I17" s="44" t="s">
-        <v>34</v>
+      <c r="I17" s="45" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="16" x14ac:dyDescent="0.2">
@@ -1347,45 +1365,45 @@
       <c r="F18" s="28"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
-      <c r="I18" s="44" t="s">
-        <v>34</v>
+      <c r="I18" s="45" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="B19" s="24">
-        <v>15</v>
-      </c>
+      <c r="B19" s="24"/>
       <c r="C19" s="27" t="s">
-        <v>15</v>
+        <v>144</v>
       </c>
       <c r="D19" s="23"/>
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
       <c r="G19" s="28"/>
       <c r="H19" s="28"/>
-      <c r="I19" s="31"/>
+      <c r="I19" s="45"/>
     </row>
     <row r="20" spans="2:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="B20" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="38"/>
+      <c r="B20" s="24">
+        <v>15</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>15</v>
+      </c>
       <c r="D20" s="23"/>
       <c r="E20" s="28"/>
       <c r="F20" s="28"/>
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
-      <c r="I20" s="31"/>
+      <c r="I20" s="45" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="21" spans="2:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="B21" s="24">
-        <v>17</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>17</v>
-      </c>
+      <c r="B21" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="39"/>
       <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
+      <c r="E21" s="28"/>
       <c r="F21" s="28"/>
       <c r="G21" s="28"/>
       <c r="H21" s="28"/>
@@ -1393,12 +1411,12 @@
     </row>
     <row r="22" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B22" s="24">
-        <v>18</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="28"/>
+        <v>17</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="23"/>
       <c r="E22" s="23"/>
       <c r="F22" s="28"/>
       <c r="G22" s="28"/>
@@ -1407,10 +1425,10 @@
     </row>
     <row r="23" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B23" s="24">
-        <v>19</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>18</v>
       </c>
       <c r="D23" s="28"/>
       <c r="E23" s="23"/>
@@ -1421,38 +1439,38 @@
     </row>
     <row r="24" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B24" s="24">
-        <v>20</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
+        <v>19</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="28"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
       <c r="I24" s="31"/>
     </row>
     <row r="25" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B25" s="24">
-        <v>21</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
+        <v>20</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
       <c r="I25" s="31"/>
     </row>
     <row r="26" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B26" s="24">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D26" s="28"/>
       <c r="E26" s="28"/>
@@ -1463,10 +1481,10 @@
     </row>
     <row r="27" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B27" s="24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D27" s="28"/>
       <c r="E27" s="28"/>
@@ -1477,38 +1495,38 @@
     </row>
     <row r="28" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B28" s="24">
-        <v>24</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>23</v>
       </c>
       <c r="D28" s="28"/>
       <c r="E28" s="28"/>
       <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
+      <c r="G28" s="28"/>
       <c r="H28" s="28"/>
       <c r="I28" s="31"/>
     </row>
     <row r="29" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B29" s="24">
-        <v>25</v>
-      </c>
-      <c r="C29" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>24</v>
       </c>
       <c r="D29" s="28"/>
       <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
+      <c r="F29" s="23"/>
       <c r="G29" s="23"/>
       <c r="H29" s="28"/>
       <c r="I29" s="31"/>
     </row>
     <row r="30" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B30" s="24">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D30" s="28"/>
       <c r="E30" s="28"/>
@@ -1518,10 +1536,12 @@
       <c r="I30" s="31"/>
     </row>
     <row r="31" spans="2:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="B31" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="38"/>
+      <c r="B31" s="24">
+        <v>26</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>26</v>
+      </c>
       <c r="D31" s="28"/>
       <c r="E31" s="28"/>
       <c r="F31" s="28"/>
@@ -1530,12 +1550,10 @@
       <c r="I31" s="31"/>
     </row>
     <row r="32" spans="2:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="B32" s="24">
-        <v>28</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>28</v>
-      </c>
+      <c r="B32" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="39"/>
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
       <c r="F32" s="28"/>
@@ -1545,10 +1563,10 @@
     </row>
     <row r="33" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B33" s="24">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D33" s="28"/>
       <c r="E33" s="28"/>
@@ -1558,10 +1576,12 @@
       <c r="I33" s="31"/>
     </row>
     <row r="34" spans="2:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="B34" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="38"/>
+      <c r="B34" s="24">
+        <v>29</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>29</v>
+      </c>
       <c r="D34" s="28"/>
       <c r="E34" s="28"/>
       <c r="F34" s="28"/>
@@ -1570,12 +1590,10 @@
       <c r="I34" s="31"/>
     </row>
     <row r="35" spans="2:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="B35" s="24">
-        <v>31</v>
-      </c>
-      <c r="C35" s="28" t="s">
-        <v>31</v>
-      </c>
+      <c r="B35" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="39"/>
       <c r="D35" s="28"/>
       <c r="E35" s="28"/>
       <c r="F35" s="28"/>
@@ -1584,10 +1602,12 @@
       <c r="I35" s="31"/>
     </row>
     <row r="36" spans="2:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="B36" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" s="38"/>
+      <c r="B36" s="24">
+        <v>31</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>31</v>
+      </c>
       <c r="D36" s="28"/>
       <c r="E36" s="28"/>
       <c r="F36" s="28"/>
@@ -1596,44 +1616,56 @@
       <c r="I36" s="31"/>
     </row>
     <row r="37" spans="2:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="B37" s="24">
-        <v>33</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>33</v>
-      </c>
+      <c r="B37" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="39"/>
       <c r="D37" s="28"/>
       <c r="E37" s="28"/>
       <c r="F37" s="28"/>
       <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
+      <c r="H37" s="28"/>
       <c r="I37" s="31"/>
     </row>
     <row r="38" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B38" s="24">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D38" s="28"/>
       <c r="E38" s="28"/>
       <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
+      <c r="G38" s="23"/>
       <c r="H38" s="23"/>
       <c r="I38" s="31"/>
     </row>
+    <row r="39" spans="2:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="B39" s="24">
+        <v>34</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="31"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="D3:H3"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2162,18 +2194,18 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="43" t="s">
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
     </row>
     <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">

--- a/Activity TEDS ASP.xlsx
+++ b/Activity TEDS ASP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bellabeen/development/terraform/terrraform-odoo-aws/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C92CBE-079C-E541-92A7-0A9DB41CC1F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C852C6-E5F3-774D-AE8E-41713A04BEA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="145">
   <si>
     <t>No</t>
   </si>
@@ -482,12 +482,19 @@
     <numFmt numFmtId="164" formatCode="dd\-mmm\-yyyy"/>
     <numFmt numFmtId="165" formatCode="dd\-mmm\-yyyy\ hh:mm"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -711,16 +718,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -745,7 +752,7 @@
     <xf numFmtId="20" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -767,58 +774,59 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1100,7 +1108,7 @@
   <dimension ref="B3:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1110,26 +1118,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="42" t="s">
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="43" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="B4" s="40"/>
-      <c r="C4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="42"/>
       <c r="D4" s="22">
         <v>1</v>
       </c>
@@ -1145,13 +1153,13 @@
       <c r="H4" s="22">
         <v>5</v>
       </c>
-      <c r="I4" s="42"/>
+      <c r="I4" s="43"/>
     </row>
     <row r="5" spans="2:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="39"/>
+      <c r="C5" s="40"/>
       <c r="D5" s="23"/>
       <c r="E5" s="28"/>
       <c r="F5" s="28"/>
@@ -1237,7 +1245,7 @@
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
-      <c r="I10" s="45" t="s">
+      <c r="I10" s="38" t="s">
         <v>143</v>
       </c>
     </row>
@@ -1301,7 +1309,7 @@
       <c r="F14" s="28"/>
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
-      <c r="I14" s="45" t="s">
+      <c r="I14" s="38" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1333,7 +1341,7 @@
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
-      <c r="I16" s="45" t="s">
+      <c r="I16" s="38" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1349,7 +1357,7 @@
       <c r="F17" s="28"/>
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
-      <c r="I17" s="45" t="s">
+      <c r="I17" s="38" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1365,7 +1373,7 @@
       <c r="F18" s="28"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
-      <c r="I18" s="45" t="s">
+      <c r="I18" s="38" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1379,7 +1387,9 @@
       <c r="F19" s="28"/>
       <c r="G19" s="28"/>
       <c r="H19" s="28"/>
-      <c r="I19" s="45"/>
+      <c r="I19" s="46" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="20" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B20" s="24">
@@ -1393,15 +1403,15 @@
       <c r="F20" s="28"/>
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
-      <c r="I20" s="45" t="s">
+      <c r="I20" s="38" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="39"/>
+      <c r="C21" s="40"/>
       <c r="D21" s="23"/>
       <c r="E21" s="28"/>
       <c r="F21" s="28"/>
@@ -1550,10 +1560,10 @@
       <c r="I31" s="31"/>
     </row>
     <row r="32" spans="2:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="B32" s="38" t="s">
+      <c r="B32" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="39"/>
+      <c r="C32" s="40"/>
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
       <c r="F32" s="28"/>
@@ -1590,10 +1600,10 @@
       <c r="I34" s="31"/>
     </row>
     <row r="35" spans="2:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="B35" s="38" t="s">
+      <c r="B35" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="39"/>
+      <c r="C35" s="40"/>
       <c r="D35" s="28"/>
       <c r="E35" s="28"/>
       <c r="F35" s="28"/>
@@ -1616,10 +1626,10 @@
       <c r="I36" s="31"/>
     </row>
     <row r="37" spans="2:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="39"/>
+      <c r="C37" s="40"/>
       <c r="D37" s="28"/>
       <c r="E37" s="28"/>
       <c r="F37" s="28"/>
@@ -2194,18 +2204,18 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="44" t="s">
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
     </row>
     <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">

--- a/Activity TEDS ASP.xlsx
+++ b/Activity TEDS ASP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bellabeen/development/terraform/terrraform-odoo-aws/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C852C6-E5F3-774D-AE8E-41713A04BEA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942EAF05-938F-DC46-8F98-C3ABD5A0B2DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="144">
   <si>
     <t>No</t>
   </si>
@@ -139,9 +139,6 @@
   </si>
   <si>
     <t>Functional Testing</t>
-  </si>
-  <si>
-    <t>on progress</t>
   </si>
   <si>
     <t>Create Report &amp; Documentation</t>
@@ -482,12 +479,19 @@
     <numFmt numFmtId="164" formatCode="dd\-mmm\-yyyy"/>
     <numFmt numFmtId="165" formatCode="dd\-mmm\-yyyy\ hh:mm"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -718,16 +722,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -752,7 +756,7 @@
     <xf numFmtId="20" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -774,59 +778,60 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1107,8 +1112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1118,26 +1123,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="43" t="s">
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="44" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="B4" s="41"/>
-      <c r="C4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="43"/>
       <c r="D4" s="22">
         <v>1</v>
       </c>
@@ -1153,13 +1158,13 @@
       <c r="H4" s="22">
         <v>5</v>
       </c>
-      <c r="I4" s="43"/>
+      <c r="I4" s="44"/>
     </row>
     <row r="5" spans="2:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="40"/>
+      <c r="C5" s="41"/>
       <c r="D5" s="23"/>
       <c r="E5" s="28"/>
       <c r="F5" s="28"/>
@@ -1174,7 +1179,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="28"/>
@@ -1190,7 +1195,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="28"/>
@@ -1206,7 +1211,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="28"/>
@@ -1222,7 +1227,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="28"/>
@@ -1246,7 +1251,7 @@
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
       <c r="I10" s="38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="16" x14ac:dyDescent="0.2">
@@ -1380,14 +1385,14 @@
     <row r="19" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B19" s="24"/>
       <c r="C19" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D19" s="23"/>
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
       <c r="G19" s="28"/>
       <c r="H19" s="28"/>
-      <c r="I19" s="46" t="s">
+      <c r="I19" s="39" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1403,21 +1408,23 @@
       <c r="F20" s="28"/>
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
-      <c r="I20" s="38" t="s">
-        <v>34</v>
+      <c r="I20" s="47" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="40"/>
+      <c r="C21" s="41"/>
       <c r="D21" s="23"/>
       <c r="E21" s="28"/>
       <c r="F21" s="28"/>
       <c r="G21" s="28"/>
       <c r="H21" s="28"/>
-      <c r="I21" s="31"/>
+      <c r="I21" s="47" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B22" s="24">
@@ -1560,10 +1567,10 @@
       <c r="I31" s="31"/>
     </row>
     <row r="32" spans="2:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="40"/>
+      <c r="C32" s="41"/>
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
       <c r="F32" s="28"/>
@@ -1600,10 +1607,10 @@
       <c r="I34" s="31"/>
     </row>
     <row r="35" spans="2:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="40"/>
+      <c r="C35" s="41"/>
       <c r="D35" s="28"/>
       <c r="E35" s="28"/>
       <c r="F35" s="28"/>
@@ -1626,10 +1633,10 @@
       <c r="I36" s="31"/>
     </row>
     <row r="37" spans="2:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="B37" s="39" t="s">
+      <c r="B37" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="40"/>
+      <c r="C37" s="41"/>
       <c r="D37" s="28"/>
       <c r="E37" s="28"/>
       <c r="F37" s="28"/>
@@ -1656,7 +1663,7 @@
         <v>34</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D39" s="28"/>
       <c r="E39" s="28"/>
@@ -1698,239 +1705,239 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s">
         <v>38</v>
-      </c>
-      <c r="G1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="D2" s="20" t="s">
+      <c r="E2" t="s">
         <v>41</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" s="21" t="s">
         <v>42</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D3" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
         <v>41</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" s="21" t="s">
         <v>42</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D4" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
         <v>41</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" s="21" t="s">
         <v>42</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D5" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
         <v>41</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" s="21" t="s">
         <v>42</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="G6" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" t="s">
-        <v>52</v>
-      </c>
       <c r="G8" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" s="33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B14" s="34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C15" s="32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1953,85 +1960,85 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
         <v>55</v>
-      </c>
-      <c r="B1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
         <v>57</v>
-      </c>
-      <c r="B2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
         <v>59</v>
-      </c>
-      <c r="B3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
         <v>62</v>
-      </c>
-      <c r="B5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" t="s">
         <v>68</v>
-      </c>
-      <c r="B10" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2054,15 +2061,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
         <v>70</v>
-      </c>
-      <c r="B1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -2070,7 +2077,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -2078,7 +2085,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -2086,7 +2093,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -2094,7 +2101,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -2102,7 +2109,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -2110,37 +2117,37 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
@@ -2148,7 +2155,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
@@ -2156,7 +2163,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
@@ -2164,7 +2171,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
@@ -2172,7 +2179,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
@@ -2200,62 +2207,62 @@
   <sheetData>
     <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="E2" s="45" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="E2" s="44" t="s">
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
     </row>
     <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>3</v>
@@ -2266,7 +2273,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="3"/>
@@ -2284,11 +2291,11 @@
     <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E5" s="11">
         <v>44513.75</v>
@@ -2313,11 +2320,11 @@
     <row r="6" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E6" s="11">
         <v>44513.75</v>
@@ -2342,11 +2349,11 @@
     <row r="7" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E7" s="11">
         <v>45039</v>
@@ -2371,11 +2378,11 @@
     <row r="8" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E8" s="11">
         <v>44513.75</v>
@@ -2400,11 +2407,11 @@
     <row r="9" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E9" s="11">
         <v>44513.75</v>
@@ -2429,11 +2436,11 @@
     <row r="10" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E10" s="11">
         <v>44513.75</v>
@@ -2458,11 +2465,11 @@
     <row r="11" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E11" s="11">
         <v>44513.75</v>
@@ -2487,11 +2494,11 @@
     <row r="12" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E12" s="11">
         <v>44514.75</v>
@@ -2516,11 +2523,11 @@
     <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E13" s="11">
         <v>44514.75</v>
@@ -2545,11 +2552,11 @@
     <row r="14" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E14" s="11">
         <v>44514.75</v>
@@ -2574,11 +2581,11 @@
     <row r="15" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E15" s="11">
         <v>44514.75</v>
@@ -2603,11 +2610,11 @@
     <row r="16" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E16" s="11">
         <v>44514.75</v>
@@ -2632,11 +2639,11 @@
     <row r="17" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E17" s="11">
         <v>44514.75</v>
@@ -2658,7 +2665,7 @@
     <row r="18" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="6"/>
